--- a/Preperation/CodeathonAttendeeList.xlsx
+++ b/Preperation/CodeathonAttendeeList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Kader\Github\Codeathon\Preperation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\Codeathon\Codeathon\Preperation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15B70C35-0189-486D-97DB-14E1DB82A275}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Attendees" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="271">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="491" uniqueCount="270">
   <si>
     <t>Order #</t>
   </si>
@@ -590,9 +589,6 @@
   </si>
   <si>
     <t>16475721163, +91 9663800070</t>
-  </si>
-  <si>
-    <t>`+918179488924</t>
   </si>
   <si>
     <t>pnkj75@gmail.com</t>
@@ -838,7 +834,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
@@ -991,27 +987,27 @@
 </file>
 
 <file path=xl/activeX/activeX1.xml><?xml version="1.0" encoding="utf-8"?>
+<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
+</file>
+
+<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
-<file path=xl/activeX/activeX5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
 <ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D11A-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
-</file>
-
-<file path=xl/activeX/activeX6.xml><?xml version="1.0" encoding="utf-8"?>
-<ax:ocx xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ax:classid="{5512D116-5CC6-11CF-8D67-00AA00BDCE1D}" ax:persistence="persistStream" r:id="rId1"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1029,7 +1025,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1039,7 +1035,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1AA4BA3-14A5-4B93-BAD3-268FFFD6C56A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1AA4BA3-14A5-4B93-BAD3-268FFFD6C56A}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1089,7 +1085,7 @@
                   <a14:compatExt spid="_x0000_s1026"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40190E50-A604-471C-A847-05787AFEA365}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{40190E50-A604-471C-A847-05787AFEA365}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1129,7 +1125,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1139,7 +1135,7 @@
                   <a14:compatExt spid="_x0000_s1027"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{261806D0-DB22-45AC-A0E0-C851CDD3B08B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{261806D0-DB22-45AC-A0E0-C851CDD3B08B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1189,7 +1185,7 @@
                   <a14:compatExt spid="_x0000_s1028"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62CEAF3C-7599-4D7D-9268-68789808CEC2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{62CEAF3C-7599-4D7D-9268-68789808CEC2}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1229,7 +1225,7 @@
           <xdr:col>1</xdr:col>
           <xdr:colOff>257175</xdr:colOff>
           <xdr:row>175</xdr:row>
-          <xdr:rowOff>47625</xdr:rowOff>
+          <xdr:rowOff>76200</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -1239,7 +1235,7 @@
                   <a14:compatExt spid="_x0000_s1029"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EB457E9-77E8-4C1B-8546-D6AF8CFCAC2D}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0EB457E9-77E8-4C1B-8546-D6AF8CFCAC2D}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1289,7 +1285,7 @@
                   <a14:compatExt spid="_x0000_s1030"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56391293-9676-40E7-A149-8D14BFC50283}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{56391293-9676-40E7-A149-8D14BFC50283}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1395,23 +1391,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1447,23 +1426,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1639,12 +1601,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:P174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B14" workbookViewId="0">
-      <selection activeCell="M59" sqref="M59"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1709,7 +1671,7 @@
         <v>14</v>
       </c>
       <c r="P1" s="16" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1759,7 +1721,7 @@
         <v>35</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1809,7 +1771,7 @@
         <v>107</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1859,7 +1821,7 @@
         <v>77</v>
       </c>
       <c r="P4" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -1957,7 +1919,7 @@
         <v>90</v>
       </c>
       <c r="P6" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
@@ -2260,7 +2222,7 @@
       </c>
       <c r="M13" s="8"/>
       <c r="P13" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2310,7 +2272,7 @@
         <v>35</v>
       </c>
       <c r="P14" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2456,7 +2418,7 @@
         <v>35</v>
       </c>
       <c r="P17" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="18" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2548,7 +2510,7 @@
         <v>6477392882</v>
       </c>
       <c r="P19" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2588,11 +2550,11 @@
       <c r="L20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M20" s="8" t="s">
-        <v>190</v>
+      <c r="M20" s="8">
+        <v>4038698356</v>
       </c>
       <c r="P20" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2642,7 +2604,7 @@
         <v>40</v>
       </c>
       <c r="P21" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2692,7 +2654,7 @@
         <v>35</v>
       </c>
       <c r="P22" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2742,7 +2704,7 @@
         <v>71</v>
       </c>
       <c r="P23" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2876,7 +2838,7 @@
         <v>6478692583</v>
       </c>
       <c r="P26" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2926,7 +2888,7 @@
         <v>124</v>
       </c>
       <c r="P27" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -2976,7 +2938,7 @@
         <v>130</v>
       </c>
       <c r="P28" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3074,7 +3036,7 @@
         <v>45</v>
       </c>
       <c r="P30" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3124,7 +3086,7 @@
         <v>101</v>
       </c>
       <c r="P31" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3174,7 +3136,7 @@
         <v>45</v>
       </c>
       <c r="P32" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3224,7 +3186,7 @@
         <v>35</v>
       </c>
       <c r="P33" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3493,7 +3455,7 @@
         <v>35</v>
       </c>
       <c r="P39" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3591,7 +3553,7 @@
         <v>35</v>
       </c>
       <c r="P41" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3602,13 +3564,13 @@
         <v>43885.996134300003</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F42" s="2">
         <v>1</v>
@@ -3635,7 +3597,7 @@
         <v>4168902085</v>
       </c>
       <c r="P42" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3646,13 +3608,13 @@
         <v>43885.445162000004</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>27</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="F43" s="2">
         <v>1</v>
@@ -3679,7 +3641,7 @@
         <v>6478257058</v>
       </c>
       <c r="P43" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3690,13 +3652,13 @@
         <v>43885.490694400003</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="F44" s="2">
         <v>1</v>
@@ -3720,10 +3682,10 @@
         <v>19</v>
       </c>
       <c r="M44" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="N44" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="O44" s="2" t="s">
         <v>35</v>
@@ -3738,13 +3700,13 @@
         <v>43885.541168999996</v>
       </c>
       <c r="C45" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D45" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="F45">
         <v>1</v>
@@ -3768,7 +3730,7 @@
         <v>19</v>
       </c>
       <c r="P45" s="18" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3779,13 +3741,13 @@
         <v>43885.9279398</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F46" s="2">
         <v>1</v>
@@ -3809,7 +3771,7 @@
         <v>19</v>
       </c>
       <c r="M46" s="8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="N46" s="2" t="s">
         <v>35</v>
@@ -3827,13 +3789,13 @@
         <v>43886.064618099997</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>29</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="F47" s="2">
         <v>1</v>
@@ -3869,13 +3831,13 @@
         <v>43886.201169</v>
       </c>
       <c r="C48" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D48" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E48" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F48">
         <v>1</v>
@@ -3902,10 +3864,10 @@
         <v>35</v>
       </c>
       <c r="N48" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="O48" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="P48" s="18"/>
     </row>
@@ -3917,13 +3879,13 @@
         <v>43886.893773099997</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F49" s="2">
         <v>1</v>
@@ -3950,7 +3912,7 @@
         <v>4164506714</v>
       </c>
       <c r="P49" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="50" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -3961,13 +3923,13 @@
         <v>43886.9009028</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="F50" s="2">
         <v>1</v>
@@ -3991,16 +3953,16 @@
         <v>19</v>
       </c>
       <c r="M50" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N50" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="O50" s="2" t="s">
         <v>35</v>
       </c>
       <c r="P50" s="17" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4011,13 +3973,13 @@
         <v>43887.367060199998</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="D51" s="2" t="s">
+      <c r="E51" s="5" t="s">
         <v>224</v>
-      </c>
-      <c r="E51" s="5" t="s">
-        <v>225</v>
       </c>
       <c r="F51" s="2">
         <v>1</v>
@@ -4047,14 +4009,14 @@
     </row>
     <row r="53" spans="1:16" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="14" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="M53" s="15"/>
       <c r="P53" s="15"/>
     </row>
     <row r="54" spans="1:16" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A54" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B54" s="11" t="s">
         <v>4</v>
@@ -4066,13 +4028,13 @@
         <v>3</v>
       </c>
       <c r="E54" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="F54" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="F54" s="11" t="s">
-        <v>228</v>
-      </c>
       <c r="G54" s="20" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -4080,13 +4042,13 @@
         <v>1</v>
       </c>
       <c r="B55" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="C55" s="2" t="s">
+      <c r="D55" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>231</v>
       </c>
       <c r="E55" s="2">
         <v>4168322204</v>
@@ -4101,13 +4063,13 @@
         <v>2</v>
       </c>
       <c r="B56" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="D56" s="2" t="s">
         <v>232</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>233</v>
       </c>
       <c r="E56" s="2">
         <v>6475451017</v>
@@ -4116,7 +4078,7 @@
         <v>43887</v>
       </c>
       <c r="G56" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.25">
@@ -4124,13 +4086,13 @@
         <v>3</v>
       </c>
       <c r="B57" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C57" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D57" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F57" s="10">
         <v>43888</v>
@@ -4142,13 +4104,13 @@
         <v>4</v>
       </c>
       <c r="B58" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C58" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D58" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F58" s="10">
         <v>43890</v>
@@ -4160,13 +4122,13 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C59" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D59" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F59" s="10">
         <v>43890</v>
@@ -4178,13 +4140,13 @@
         <v>6</v>
       </c>
       <c r="B60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C60" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D60" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F60" s="10">
         <v>43890</v>
@@ -4196,13 +4158,13 @@
         <v>7</v>
       </c>
       <c r="B61" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C61" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D61" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="F61" s="10">
         <v>43890</v>
@@ -4214,13 +4176,13 @@
         <v>8</v>
       </c>
       <c r="B62" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C62" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D62" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F62" s="10">
         <v>43890</v>
@@ -4232,10 +4194,10 @@
         <v>9</v>
       </c>
       <c r="B63" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C63" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D63" t="s">
         <v>172</v>
@@ -4250,13 +4212,13 @@
         <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C64" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D64" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F64" s="10">
         <v>43890</v>
@@ -4268,13 +4230,13 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
         <v>259</v>
       </c>
-      <c r="C65" t="s">
+      <c r="D65" t="s">
         <v>260</v>
-      </c>
-      <c r="D65" t="s">
-        <v>261</v>
       </c>
       <c r="F65" s="10">
         <v>43890</v>
@@ -4286,13 +4248,13 @@
         <v>12</v>
       </c>
       <c r="B66" t="s">
+        <v>261</v>
+      </c>
+      <c r="C66" t="s">
         <v>262</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D66" t="s">
         <v>263</v>
-      </c>
-      <c r="D66" t="s">
-        <v>264</v>
       </c>
       <c r="F66" s="10">
         <v>43890</v>
@@ -4304,13 +4266,13 @@
         <v>13</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="C67" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="C67" s="2" t="s">
+      <c r="D67" s="2" t="s">
         <v>266</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>267</v>
       </c>
       <c r="E67" s="2">
         <v>4168797150</v>
@@ -4319,7 +4281,7 @@
         <v>43890</v>
       </c>
       <c r="G67" s="19" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="M67" s="8"/>
       <c r="P67" s="8"/>
@@ -4329,13 +4291,13 @@
         <v>14</v>
       </c>
       <c r="B68" t="s">
+        <v>267</v>
+      </c>
+      <c r="C68" t="s">
         <v>268</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D68" t="s">
         <v>269</v>
-      </c>
-      <c r="D68" t="s">
-        <v>270</v>
       </c>
       <c r="F68" s="10">
         <v>43890</v>
@@ -4771,24 +4733,24 @@
     <sortCondition ref="C1"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" xr:uid="{D3696CE5-6514-49E1-AC24-A85A34041E01}"/>
-    <hyperlink ref="E9" r:id="rId2" xr:uid="{B1744865-3723-4C77-B6BA-F75BC8090F10}"/>
-    <hyperlink ref="E11" r:id="rId3" xr:uid="{394A2395-5160-409A-B767-DD3A3163A55E}"/>
-    <hyperlink ref="E12" r:id="rId4" xr:uid="{DBA4A83D-7B7C-4A94-85F8-08F9A8E2B5E9}"/>
-    <hyperlink ref="E18" r:id="rId5" xr:uid="{F77F4D72-4B6F-41F7-830B-000646785805}"/>
-    <hyperlink ref="E20" r:id="rId6" xr:uid="{E423EA87-2C07-4FF5-AA6F-175D4B7ECDD6}"/>
-    <hyperlink ref="E25" r:id="rId7" xr:uid="{954C4C12-6F41-4678-A708-537D3C04648A}"/>
-    <hyperlink ref="E26" r:id="rId8" xr:uid="{54068D34-F02A-47C9-9686-3FA3754D52D5}"/>
-    <hyperlink ref="E31" r:id="rId9" xr:uid="{9891E36E-DAD4-42F4-9EA3-ED43755BC3AE}"/>
-    <hyperlink ref="E35" r:id="rId10" xr:uid="{D1114C62-8144-4C23-902B-4611C4865163}"/>
-    <hyperlink ref="E37" r:id="rId11" xr:uid="{9E5D837E-6398-4F04-B4C4-90BF524F5667}"/>
-    <hyperlink ref="E38" r:id="rId12" xr:uid="{0FD6E97D-69D1-465A-B194-D7F0D33CAB73}"/>
-    <hyperlink ref="E43" r:id="rId13" xr:uid="{E3FF1E1C-27AB-46BA-ABB3-6BB6D7445D0C}"/>
-    <hyperlink ref="E45" r:id="rId14" xr:uid="{6F027E78-46D1-4873-BBE9-21E2E152EBB0}"/>
-    <hyperlink ref="E47" r:id="rId15" xr:uid="{4B532580-1BC5-4868-9548-CD6D371CE9E0}"/>
-    <hyperlink ref="E48" r:id="rId16" xr:uid="{3F8F5547-721B-4998-BF6D-7A18BC062F2A}"/>
-    <hyperlink ref="E51" r:id="rId17" xr:uid="{D299A0DE-926D-4DFB-8CC9-BEFE01670558}"/>
-    <hyperlink ref="B56" r:id="rId18" xr:uid="{B68BC1DB-50F2-45C7-B859-2756686C6AA9}"/>
+    <hyperlink ref="E7" r:id="rId1"/>
+    <hyperlink ref="E9" r:id="rId2"/>
+    <hyperlink ref="E11" r:id="rId3"/>
+    <hyperlink ref="E12" r:id="rId4"/>
+    <hyperlink ref="E18" r:id="rId5"/>
+    <hyperlink ref="E20" r:id="rId6"/>
+    <hyperlink ref="E25" r:id="rId7"/>
+    <hyperlink ref="E26" r:id="rId8"/>
+    <hyperlink ref="E31" r:id="rId9"/>
+    <hyperlink ref="E35" r:id="rId10"/>
+    <hyperlink ref="E37" r:id="rId11"/>
+    <hyperlink ref="E38" r:id="rId12"/>
+    <hyperlink ref="E43" r:id="rId13"/>
+    <hyperlink ref="E45" r:id="rId14"/>
+    <hyperlink ref="E47" r:id="rId15"/>
+    <hyperlink ref="E48" r:id="rId16"/>
+    <hyperlink ref="E51" r:id="rId17"/>
+    <hyperlink ref="B56" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId19"/>
@@ -4797,8 +4759,33 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1030" r:id="rId22" name="Control 6">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId23">
+        <control shapeId="1025" r:id="rId22" name="Control 1">
+          <controlPr defaultSize="0" r:id="rId23">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>174</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>1</xdr:col>
+                <xdr:colOff>257175</xdr:colOff>
+                <xdr:row>175</xdr:row>
+                <xdr:rowOff>76200</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1025" r:id="rId22" name="Control 1"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1026" r:id="rId24" name="Control 2">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId25">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4817,13 +4804,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1030" r:id="rId22" name="Control 6"/>
+        <control shapeId="1026" r:id="rId24" name="Control 2"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1029" r:id="rId24" name="Control 5">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId25">
+        <control shapeId="1027" r:id="rId26" name="Control 3">
+          <controlPr defaultSize="0" r:id="rId27">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4835,20 +4822,20 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1029" r:id="rId24" name="Control 5"/>
+        <control shapeId="1027" r:id="rId26" name="Control 3"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1028" r:id="rId26" name="Control 4">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId27">
+        <control shapeId="1028" r:id="rId28" name="Control 4">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId29">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4867,13 +4854,13 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1028" r:id="rId26" name="Control 4"/>
+        <control shapeId="1028" r:id="rId28" name="Control 4"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1027" r:id="rId28" name="Control 3">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId29">
+        <control shapeId="1029" r:id="rId30" name="Control 5">
+          <controlPr defaultSize="0" r:id="rId23">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>1</xdr:col>
@@ -4885,20 +4872,20 @@
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>257175</xdr:colOff>
                 <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
+                <xdr:rowOff>76200</xdr:rowOff>
               </to>
             </anchor>
           </controlPr>
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1027" r:id="rId28" name="Control 3"/>
+        <control shapeId="1029" r:id="rId30" name="Control 5"/>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1026" r:id="rId30" name="Control 2">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId31">
+        <control shapeId="1030" r:id="rId31" name="Control 6">
+          <controlPr defaultSize="0" autoPict="0" r:id="rId32">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>2</xdr:col>
@@ -4917,32 +4904,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1026" r:id="rId30" name="Control 2"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1025" r:id="rId32" name="Control 1">
-          <controlPr defaultSize="0" autoPict="0" r:id="rId25">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>174</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>1</xdr:col>
-                <xdr:colOff>257175</xdr:colOff>
-                <xdr:row>175</xdr:row>
-                <xdr:rowOff>47625</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1025" r:id="rId32" name="Control 1"/>
+        <control shapeId="1030" r:id="rId31" name="Control 6"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
